--- a/teaching/traditional_assets/database/data/singapore/singapore_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0687</v>
+        <v>0.0236</v>
       </c>
       <c r="E2">
-        <v>0.0562</v>
+        <v>0.00151</v>
       </c>
       <c r="F2">
-        <v>0.0345</v>
+        <v>-0.0144</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007348310551593784</v>
+        <v>0.0001688048473625164</v>
       </c>
       <c r="J2">
-        <v>0.006244124185465849</v>
+        <v>0.0001444172945086039</v>
       </c>
       <c r="K2">
-        <v>10850.7</v>
+        <v>8900.299999999999</v>
       </c>
       <c r="L2">
-        <v>0.4639450314051283</v>
+        <v>0.4210747926631373</v>
       </c>
       <c r="M2">
-        <v>4636.746999999999</v>
+        <v>2537.2908</v>
       </c>
       <c r="N2">
-        <v>0.03935008978793752</v>
+        <v>0.02285343144981513</v>
       </c>
       <c r="O2">
-        <v>0.4273223847309389</v>
+        <v>0.2850792445198476</v>
       </c>
       <c r="P2">
-        <v>4349.647</v>
+        <v>2537.2908</v>
       </c>
       <c r="Q2">
-        <v>0.03691359481029115</v>
+        <v>0.02285343144981513</v>
       </c>
       <c r="R2">
-        <v>0.4008632622780097</v>
+        <v>0.2850792445198476</v>
       </c>
       <c r="S2">
-        <v>287.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.06191840960915054</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>28497.8</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.2418486470706049</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.1143135389098695</v>
+        <v>0.08295381295367282</v>
       </c>
       <c r="X2">
-        <v>0.05358199147682829</v>
+        <v>0.04916858632653831</v>
       </c>
       <c r="Y2">
-        <v>0.06073154743304117</v>
+        <v>0.03378522662713451</v>
       </c>
       <c r="Z2">
-        <v>0.1390976166296975</v>
+        <v>0.1102482277657642</v>
       </c>
       <c r="AA2">
-        <v>0.0009547608194925877</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04030720974708434</v>
+        <v>0.03309983959440024</v>
       </c>
       <c r="AC2">
-        <v>-0.03953840370554595</v>
+        <v>-0.03302450969416065</v>
       </c>
       <c r="AD2">
-        <v>125009.5</v>
+        <v>139576</v>
       </c>
       <c r="AE2">
-        <v>766.6922382518987</v>
+        <v>13.60977530406878</v>
       </c>
       <c r="AF2">
-        <v>125776.1922382519</v>
+        <v>139589.6097753041</v>
       </c>
       <c r="AG2">
-        <v>97278.39223825191</v>
+        <v>139589.6097753041</v>
       </c>
       <c r="AH2">
-        <v>0.5163027216752045</v>
+        <v>0.5569902265297733</v>
       </c>
       <c r="AI2">
-        <v>0.557213813734886</v>
+        <v>0.569651646794516</v>
       </c>
       <c r="AJ2">
-        <v>0.4522229193976164</v>
+        <v>0.5569902265297733</v>
       </c>
       <c r="AK2">
-        <v>0.493234124102606</v>
+        <v>0.569651646794516</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>384.4080565805658</v>
+        <v>22190.14308426073</v>
       </c>
       <c r="AP2">
-        <v>299.1340474730993</v>
+        <v>22192.30680052529</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0687</v>
+        <v>0.0236</v>
       </c>
       <c r="E3">
-        <v>0.0562</v>
+        <v>0.00151</v>
       </c>
       <c r="F3">
-        <v>0.0345</v>
+        <v>-0.0144</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,91 +737,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006156975784098836</v>
+        <v>0.0006044050782915345</v>
       </c>
       <c r="J3">
-        <v>0.00516559974578927</v>
+        <v>0.0005051522315809006</v>
       </c>
       <c r="K3">
-        <v>3075.4</v>
+        <v>2367.9</v>
       </c>
       <c r="L3">
-        <v>0.4526641153959376</v>
+        <v>0.4011078361622116</v>
       </c>
       <c r="M3">
-        <v>1480.3</v>
+        <v>479.3932</v>
       </c>
       <c r="N3">
-        <v>0.04518744409950212</v>
+        <v>0.01673432400261107</v>
       </c>
       <c r="O3">
-        <v>0.4813357612017948</v>
+        <v>0.2024550023227332</v>
       </c>
       <c r="P3">
-        <v>1447.5</v>
+        <v>479.3932</v>
       </c>
       <c r="Q3">
-        <v>0.04418619559145398</v>
+        <v>0.01673432400261107</v>
       </c>
       <c r="R3">
-        <v>0.4706704818885348</v>
+        <v>0.2024550023227332</v>
       </c>
       <c r="S3">
-        <v>32.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02215767074241705</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>11794.1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3600251533161778</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1143135389098695</v>
+        <v>0.08295381295367282</v>
       </c>
       <c r="X3">
-        <v>0.05358199147682829</v>
+        <v>0.04916858632653831</v>
       </c>
       <c r="Y3">
-        <v>0.06073154743304117</v>
+        <v>0.03378522662713451</v>
       </c>
       <c r="Z3">
-        <v>0.2452774210563115</v>
+        <v>0.151016820336258</v>
       </c>
       <c r="AA3">
-        <v>0.00126700498385633</v>
+        <v>7.628648379911266e-05</v>
       </c>
       <c r="AB3">
-        <v>0.04030720974708434</v>
+        <v>0.03309983959440024</v>
       </c>
       <c r="AC3">
-        <v>-0.039040204763228</v>
+        <v>-0.03302355311060112</v>
       </c>
       <c r="AD3">
-        <v>25325.5</v>
+        <v>26297</v>
       </c>
       <c r="AE3">
-        <v>154.3475326141626</v>
+        <v>13.60977530406878</v>
       </c>
       <c r="AF3">
-        <v>25479.84753261416</v>
+        <v>26310.60977530407</v>
       </c>
       <c r="AG3">
-        <v>13685.74753261416</v>
+        <v>26310.60977530407</v>
       </c>
       <c r="AH3">
-        <v>0.43750528833553</v>
+        <v>0.4787410926448121</v>
       </c>
       <c r="AI3">
-        <v>0.4702870871096435</v>
+        <v>0.4711227750648328</v>
       </c>
       <c r="AJ3">
-        <v>0.2946666478559082</v>
+        <v>0.4787410926448121</v>
       </c>
       <c r="AK3">
-        <v>0.3228894091531115</v>
+        <v>0.4711227750648328</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>348.3562585969739</v>
+        <v>4180.763116057234</v>
       </c>
       <c r="AP3">
-        <v>188.2496221817629</v>
+        <v>4182.926832321792</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DBS Group Holdings Ltd (SGX:D05)</t>
+          <t>Oversea-Chinese Banking Corporation Limited (SGX:O39)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0789</v>
+        <v>0.0145</v>
       </c>
       <c r="E4">
-        <v>0.08210000000000001</v>
+        <v>-0.00199</v>
       </c>
       <c r="F4">
-        <v>0.0442</v>
+        <v>-0.009050000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,103 +868,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01015771399906961</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00858386304314819</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4483.7</v>
+        <v>2709.4</v>
       </c>
       <c r="L4">
-        <v>0.4579830645243664</v>
+        <v>0.4294499920748138</v>
       </c>
       <c r="M4">
-        <v>1500.8</v>
+        <v>1440.5314</v>
       </c>
       <c r="N4">
-        <v>0.03053764403541292</v>
+        <v>0.04230747361897966</v>
       </c>
       <c r="O4">
-        <v>0.3347235542074626</v>
+        <v>0.531679117147708</v>
       </c>
       <c r="P4">
-        <v>1375</v>
+        <v>1440.5314</v>
       </c>
       <c r="Q4">
-        <v>0.027977918809097</v>
+        <v>0.04230747361897966</v>
       </c>
       <c r="R4">
-        <v>0.3066663692932177</v>
+        <v>0.531679117147708</v>
       </c>
       <c r="S4">
-        <v>125.8</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.08382196162046905</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8691.299999999999</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.1768468987240034</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.1285298628330634</v>
+        <v>0.08165319542640845</v>
       </c>
       <c r="X4">
-        <v>0.06730604010673255</v>
+        <v>0.04716834211094004</v>
       </c>
       <c r="Y4">
-        <v>0.06122382272633084</v>
+        <v>0.03448485331546841</v>
       </c>
       <c r="Z4">
-        <v>0.1112274059701706</v>
+        <v>0.1308953749885889</v>
       </c>
       <c r="AA4">
-        <v>0.0009547608194925877</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04049316452503855</v>
+        <v>0.03302450969416065</v>
       </c>
       <c r="AC4">
-        <v>-0.03953840370554595</v>
+        <v>-0.03302450969416065</v>
       </c>
       <c r="AD4">
-        <v>76654.60000000001</v>
+        <v>27644.7</v>
       </c>
       <c r="AE4">
-        <v>464.2748208885433</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>77118.87482088855</v>
+        <v>27644.7</v>
       </c>
       <c r="AG4">
-        <v>68427.57482088855</v>
+        <v>27644.7</v>
       </c>
       <c r="AH4">
-        <v>0.6107710953453538</v>
+        <v>0.4480952705134065</v>
       </c>
       <c r="AI4">
-        <v>0.675376614803603</v>
+        <v>0.4332875668864083</v>
       </c>
       <c r="AJ4">
-        <v>0.5819984050410276</v>
+        <v>0.4480952705134065</v>
       </c>
       <c r="AK4">
-        <v>0.6486322709741561</v>
+        <v>0.4332875668864083</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>398.6198647945918</v>
-      </c>
-      <c r="AP4">
-        <v>355.8376225735234</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited (SGX:O39)</t>
+          <t>DBS Group Holdings Ltd (SGX:D05)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +978,13 @@
         </is>
       </c>
       <c r="D5">
+        <v>0.04190000000000001</v>
+      </c>
+      <c r="E5">
         <v>0.0399</v>
       </c>
-      <c r="E5">
-        <v>0.0387</v>
-      </c>
       <c r="F5">
-        <v>0.0303</v>
+        <v>-0.0172</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +993,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004495432412793061</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003889296359589863</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3291.6</v>
+        <v>3823</v>
       </c>
       <c r="L5">
-        <v>0.4837884711484758</v>
+        <v>0.4283617376494447</v>
       </c>
       <c r="M5">
-        <v>1655.647</v>
+        <v>617.3661999999999</v>
       </c>
       <c r="N5">
-        <v>0.0460821026380392</v>
+        <v>0.01277447696060884</v>
       </c>
       <c r="O5">
-        <v>0.5029915542593267</v>
+        <v>0.1614873659429767</v>
       </c>
       <c r="P5">
-        <v>1527.147</v>
+        <v>617.3661999999999</v>
       </c>
       <c r="Q5">
-        <v>0.04250552490801098</v>
+        <v>0.01277447696060884</v>
       </c>
       <c r="R5">
-        <v>0.4639527889172439</v>
+        <v>0.1614873659429767</v>
       </c>
       <c r="S5">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0776131627092007</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8012.4</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.223011450615394</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.108831931439454</v>
+        <v>0.1048267465868927</v>
       </c>
       <c r="X5">
-        <v>0.05128092760709357</v>
+        <v>0.06519493857402499</v>
       </c>
       <c r="Y5">
-        <v>0.05755100383236048</v>
+        <v>0.0396318080128677</v>
       </c>
       <c r="Z5">
-        <v>0.1297885992693214</v>
+        <v>0.0854586194019132</v>
       </c>
       <c r="AA5">
-        <v>0.0005047863266544392</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04028506618768786</v>
+        <v>0.03370659017529797</v>
       </c>
       <c r="AC5">
-        <v>-0.03978027986103342</v>
+        <v>-0.03370659017529797</v>
       </c>
       <c r="AD5">
-        <v>23029.4</v>
+        <v>85634.3</v>
       </c>
       <c r="AE5">
-        <v>148.0698847491929</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>23177.46988474919</v>
+        <v>85634.3</v>
       </c>
       <c r="AG5">
-        <v>15165.06988474919</v>
+        <v>85634.3</v>
       </c>
       <c r="AH5">
-        <v>0.3921361508962372</v>
+        <v>0.6392413095017707</v>
       </c>
       <c r="AI5">
-        <v>0.4040873755865284</v>
+        <v>0.6829163842258463</v>
       </c>
       <c r="AJ5">
-        <v>0.2968114962881992</v>
+        <v>0.6392413095017707</v>
       </c>
       <c r="AK5">
-        <v>0.307326328395845</v>
+        <v>0.6829163842258463</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>382.5481727574751</v>
-      </c>
-      <c r="AP5">
-        <v>251.9114598795547</v>
       </c>
     </row>
   </sheetData>
